--- a/db_init/inspections.xlsx
+++ b/db_init/inspections.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coding\django-yolobuilds\.init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdoolittle\Documents\Coding\yolo-builds\db_init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F683DD-0C4A-4652-BA97-D74E515C41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F89F747-E489-41E8-81D7-8F0134B7BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13788" yWindow="252" windowWidth="9252" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="insp_type" sheetId="2" r:id="rId1"/>
-    <sheet name="insp_result" sheetId="1" r:id="rId2"/>
+    <sheet name="group" sheetId="3" r:id="rId1"/>
+    <sheet name="type" sheetId="2" r:id="rId2"/>
+    <sheet name="status" sheetId="4" r:id="rId3"/>
+    <sheet name="result" sheetId="1" r:id="rId4"/>
+    <sheet name="scope" sheetId="5" r:id="rId5"/>
+    <sheet name="trip" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="186">
   <si>
     <t>Approved</t>
   </si>
@@ -65,9 +69,6 @@
     <t>DO NOT PROCEED. Construction has created a hazardous condition that must be removed and inspected prior to continuing any other work. Access is prohibited as described in the inspection notes.</t>
   </si>
   <si>
-    <t>inspection_type</t>
-  </si>
-  <si>
     <t>* Final C&amp;D</t>
   </si>
   <si>
@@ -276,6 +277,312 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Public Works</t>
+  </si>
+  <si>
+    <t>Env. Health</t>
+  </si>
+  <si>
+    <t>Code Enforcement</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>inspector</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>trips</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Int. Waste</t>
+  </si>
+  <si>
+    <t>* Final Planning</t>
+  </si>
+  <si>
+    <t>Fire District</t>
+  </si>
+  <si>
+    <t>&lt;bldg default&gt;</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>trip_number</t>
+  </si>
+  <si>
+    <t>resulted</t>
+  </si>
+  <si>
+    <t>scheduled_date</t>
+  </si>
+  <si>
+    <t>scheduled_time</t>
+  </si>
+  <si>
+    <t>requested_by</t>
+  </si>
+  <si>
+    <t>requested_date</t>
+  </si>
+  <si>
+    <t>requested_time</t>
+  </si>
+  <si>
+    <t>Service District</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -773,7 +1080,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -821,7 +1138,73 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -838,6 +1221,85 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -847,6 +1309,17 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -863,6 +1336,18 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,28 +1363,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F250A345-CB0E-4C1E-B012-6D5484C730A2}" name="Table13" displayName="Table13" ref="B1:B68" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:B68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
-    <sortCondition ref="B1:B6"/>
-  </sortState>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="inspection_type" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5CF6DEA5-D8CB-4EB6-84F6-C52B0871F48B}" name="Table3" displayName="Table3" ref="A1:C9" totalsRowShown="0" headerRowDxfId="46">
+  <autoFilter ref="A1:C9" xr:uid="{5CF6DEA5-D8CB-4EB6-84F6-C52B0871F48B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8FD0A590-CA23-4101-923B-A7CAB57CAACD}" name="id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{B7484F1A-42E5-4220-A8AB-D2BCF5CA3280}" name="group" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{95E289B0-6DB8-40E6-A6EB-84686C36C029}" name="active" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F250A345-CB0E-4C1E-B012-6D5484C730A2}" name="Table13" displayName="Table13" ref="A1:H69" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H7">
+    <sortCondition ref="H1:H7"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="9" xr3:uid="{310C5F58-2C63-4B11-9E1C-695AF6B51033}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{F0518CC6-96FA-4EF7-A50E-006BE8EBF0F6}" name="name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{504E8D76-2AE9-4BEB-86D3-8AB08901EE2A}" name="group" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{9225062C-7BF9-4BC7-B1F8-CE0DDB3A656F}" name="inspector" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{8EBE1340-0CE1-4CBB-8EB2-46D64D74446D}" name="hours" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{2FF908BF-9AA9-4747-AEB2-C079A28E79C2}" name="trips" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{E617E89C-22C0-4CD9-96F2-E0966B342287}" name="checklist" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="active" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED22F52B-695B-46C7-B402-EB8164ACC763}" name="Table4" displayName="Table4" ref="A1:D30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:D30" xr:uid="{ED22F52B-695B-46C7-B402-EB8164ACC763}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4D4466D0-A10F-4FB3-BA13-D3F2B3196502}" name="id" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{14F1A2F2-C66C-4971-AEEC-7329F0F0C785}" name="status" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{7C7FACD4-F689-4EE2-B921-1500966C1147}" name="description" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{038001CF-41CF-48E6-B9D3-B59A09FAB783}" name="active" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C8">
     <sortCondition ref="B1:B8"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{1F69A5B7-4875-411C-9F9F-A91A6F9CD566}" name="id" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="result" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="requirements" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1F69A5B7-4875-411C-9F9F-A91A6F9CD566}" name="id" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="result" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="requirements" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4DB571AA-89DB-437C-9DA2-A74209ED813B}" name="Table46" displayName="Table46" ref="A1:E30" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:E30" xr:uid="{4DB571AA-89DB-437C-9DA2-A74209ED813B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A8BB5925-93E1-45E9-88AE-CD7DADBE7217}" name="id" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{804D7CFC-0156-444A-BD6A-F545956E7ECA}" name="record" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{54259A2E-09F6-43E9-B4C0-1E8173B9212A}" name="type" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{05980EE2-8AC4-4950-8041-D478ED4ACC79}" name="status" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{3D9A722B-59C7-441A-8DA0-12B2B7BDABA7}" name="duration" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22ED9128-33D0-49AB-9FD8-F6BAFB621D9E}" name="Table467" displayName="Table467" ref="A1:M30" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M30" xr:uid="{22ED9128-33D0-49AB-9FD8-F6BAFB621D9E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E1E77E13-9846-427E-9C00-EB6C28F4379E}" name="id" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{41064285-1816-4375-91C4-49F4F2FBDA9B}" name="record" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{8329FF7E-E26C-4AA5-A19B-9BA0807F2082}" name="scope" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{B2B568EA-3D30-41B9-8B3D-426E880F951F}" name="trip_number" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{3F5C26E7-E0CE-4A27-BF80-F4E72B0E91C3}" name="result" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{4F5B3BE5-4A94-4409-BB3E-857161CD4F2F}" name="resulted" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{04DB4D3A-BF54-48B9-8771-05647D51D377}" name="inspector" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{81B62563-4CB8-4AE3-9C5D-6A7EE67F01F1}" name="duration" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{1D808984-D4BA-426D-A341-5EF971863F3C}" name="scheduled_date" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{533686E5-B3C8-4EAA-A3E0-4CC9A31EC268}" name="scheduled_time" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2C3E61EB-BC5E-45CE-AB99-C7B3784112CB}" name="requested_by" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E12646FC-29C0-4075-B781-A522538C7600}" name="requested_date" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{F6770B29-E752-4A36-B7F2-5CF9F2D58D33}" name="requested_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1201,358 +1754,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4CFB6A-95B0-4D4C-A072-B12C8F52C166}">
-  <dimension ref="B1:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B0A881-1A53-4BB8-AA3F-7C7F9478DFD3}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>80</v>
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1565,6 +1878,2013 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4CFB6A-95B0-4D4C-A072-B12C8F52C166}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86CD2B0C-C2D1-4640-9DFD-5EF1C4E833AA}">
+          <x14:formula1>
+            <xm:f>group!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C69</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C8260-D209-4B33-8BE1-20FA775899B7}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1572,26 +3892,26 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +3922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1613,7 +3933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1624,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1635,7 +3955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1646,7 +3966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1657,7 +3977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1666,6 +3986,413 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87783020-4C98-4CAA-90B8-4470435A4F58}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B636578E-605D-4255-B67F-1CD761B37FF5}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
